--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_49.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,448 +488,450 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:00:04.260000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2342342342342342</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[('0:00:11.129160', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:47.140000', '0:00:59.700000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.52, 13.74)]</t>
+          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1458885941644562</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'E', 'B']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(15.436031, 21.24102)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.664331, 20.660521)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_213</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
@@ -933,270 +940,226 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:10.240000', '0:00:21.020000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.24, 13.86)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7413793103448276</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(56.6, 61.46), (16.04, 22.4)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[('0:00:40.074104', '0:00:54.168616')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:23.100000', '0:01:30.020000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
